--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11385" windowWidth="24090" xWindow="3075" yWindow="3075"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11385" windowWidth="24090" xWindow="2820" yWindow="510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -66,7 +66,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -77,6 +77,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFFFC000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
     <fill>
@@ -103,7 +109,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -141,17 +147,23 @@
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -463,10 +475,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G43" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.625" defaultRowHeight="14.25"/>
@@ -484,7 +496,8 @@
     <col customWidth="1" max="12" min="12" style="1" width="24.5"/>
     <col customWidth="1" max="13" min="13" style="1" width="26.5"/>
     <col customWidth="1" max="15" min="14" style="1" width="20.25"/>
-    <col customWidth="1" max="16384" min="16" style="1" width="8.625"/>
+    <col customWidth="1" max="16" min="16" style="1" width="24.5"/>
+    <col customWidth="1" max="16384" min="17" style="1" width="8.625"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="32.45" r="1" s="11">
@@ -573,6 +586,12 @@
 2019.11.25-2019.12.8</t>
         </is>
       </c>
+      <c r="P1" s="3" t="inlineStr">
+        <is>
+          <t>第11期课题 
+2019.12.9-2019.12.22</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -652,10 +671,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="13" t="n">
         <v>29012207</v>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B4" s="13" t="inlineStr">
         <is>
           <t>鬼剑士</t>
         </is>
@@ -686,22 +705,22 @@
           <t>提交了，但未达标</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>达标</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>达标</t>
-        </is>
-      </c>
-      <c r="M4" s="1" t="inlineStr">
-        <is>
-          <t>达标</t>
-        </is>
-      </c>
-      <c r="N4" s="1" t="inlineStr">
+      <c r="K4" s="13" t="inlineStr">
+        <is>
+          <t>达标</t>
+        </is>
+      </c>
+      <c r="L4" s="13" t="inlineStr">
+        <is>
+          <t>达标</t>
+        </is>
+      </c>
+      <c r="M4" s="13" t="inlineStr">
+        <is>
+          <t>达标</t>
+        </is>
+      </c>
+      <c r="N4" s="13" t="inlineStr">
         <is>
           <t>达标</t>
         </is>
@@ -801,10 +820,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="13" t="n">
         <v>630153499</v>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B8" s="13" t="inlineStr">
         <is>
           <t>Niord</t>
         </is>
@@ -820,22 +839,22 @@
           <t>已提交</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
-        <is>
-          <t>达标</t>
-        </is>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>达标</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>达标</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="F8" s="13" t="inlineStr">
+        <is>
+          <t>达标</t>
+        </is>
+      </c>
+      <c r="G8" s="13" t="inlineStr">
+        <is>
+          <t>达标</t>
+        </is>
+      </c>
+      <c r="H8" s="13" t="inlineStr">
+        <is>
+          <t>达标</t>
+        </is>
+      </c>
+      <c r="I8" s="13" t="inlineStr">
         <is>
           <t>达标</t>
         </is>
@@ -850,22 +869,22 @@
           <t>提交了，但未达标</t>
         </is>
       </c>
-      <c r="L8" s="1" t="inlineStr">
-        <is>
-          <t>达标</t>
-        </is>
-      </c>
-      <c r="M8" s="1" t="inlineStr">
-        <is>
-          <t>达标</t>
-        </is>
-      </c>
-      <c r="N8" s="1" t="inlineStr">
-        <is>
-          <t>达标</t>
-        </is>
-      </c>
-      <c r="O8" s="1" t="inlineStr">
+      <c r="L8" s="13" t="inlineStr">
+        <is>
+          <t>达标</t>
+        </is>
+      </c>
+      <c r="M8" s="13" t="inlineStr">
+        <is>
+          <t>达标</t>
+        </is>
+      </c>
+      <c r="N8" s="13" t="inlineStr">
+        <is>
+          <t>达标</t>
+        </is>
+      </c>
+      <c r="O8" s="13" t="inlineStr">
         <is>
           <t>达标</t>
         </is>
@@ -1139,10 +1158,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="12" t="n">
         <v>2473108024</v>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B16" s="12" t="inlineStr">
         <is>
           <t>Remilitarize</t>
         </is>
@@ -1165,10 +1184,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="12" t="n">
         <v>675636744</v>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B17" s="12" t="inlineStr">
         <is>
           <t>baofengxue</t>
         </is>
@@ -1216,10 +1235,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="12" t="n">
         <v>994649801</v>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B18" s="12" t="inlineStr">
         <is>
           <t>Ambi</t>
         </is>
@@ -1340,10 +1359,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="14" t="n">
         <v>1335138135</v>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B22" s="12" t="inlineStr">
         <is>
           <t>雨过天晴</t>
         </is>
@@ -1359,22 +1378,22 @@
           <t>已提交</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
-        <is>
-          <t>达标</t>
-        </is>
-      </c>
-      <c r="G22" s="1" t="inlineStr">
-        <is>
-          <t>达标</t>
-        </is>
-      </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>达标</t>
-        </is>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="F22" s="13" t="inlineStr">
+        <is>
+          <t>达标</t>
+        </is>
+      </c>
+      <c r="G22" s="13" t="inlineStr">
+        <is>
+          <t>达标</t>
+        </is>
+      </c>
+      <c r="H22" s="13" t="inlineStr">
+        <is>
+          <t>达标</t>
+        </is>
+      </c>
+      <c r="I22" s="13" t="inlineStr">
         <is>
           <t>达标</t>
         </is>
@@ -1386,7 +1405,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="13" t="n">
+      <c r="A23" s="14" t="n">
         <v>2370539671</v>
       </c>
       <c r="B23" s="12" t="inlineStr">
@@ -1422,7 +1441,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="13" t="n">
+      <c r="A24" s="14" t="n">
         <v>2218657152</v>
       </c>
       <c r="B24" s="12" t="inlineStr">
@@ -1477,22 +1496,22 @@
           <t>已提交</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
-        <is>
-          <t>达标</t>
-        </is>
-      </c>
-      <c r="G25" s="1" t="inlineStr">
-        <is>
-          <t>达标</t>
-        </is>
-      </c>
-      <c r="H25" s="1" t="inlineStr">
-        <is>
-          <t>达标</t>
-        </is>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="F25" s="13" t="inlineStr">
+        <is>
+          <t>达标</t>
+        </is>
+      </c>
+      <c r="G25" s="13" t="inlineStr">
+        <is>
+          <t>达标</t>
+        </is>
+      </c>
+      <c r="H25" s="13" t="inlineStr">
+        <is>
+          <t>达标</t>
+        </is>
+      </c>
+      <c r="I25" s="13" t="inlineStr">
         <is>
           <t>达标</t>
         </is>
@@ -1570,10 +1589,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="13" t="n">
         <v>2829704756</v>
       </c>
-      <c r="B27" s="1" t="inlineStr">
+      <c r="B27" s="13" t="inlineStr">
         <is>
           <t>基佬米</t>
         </is>
@@ -1599,22 +1618,22 @@
           <t>提交了，但未达标</t>
         </is>
       </c>
-      <c r="L27" s="1" t="inlineStr">
-        <is>
-          <t>达标</t>
-        </is>
-      </c>
-      <c r="M27" s="1" t="inlineStr">
-        <is>
-          <t>达标</t>
-        </is>
-      </c>
-      <c r="N27" s="1" t="inlineStr">
-        <is>
-          <t>达标</t>
-        </is>
-      </c>
-      <c r="O27" s="1" t="inlineStr">
+      <c r="L27" s="13" t="inlineStr">
+        <is>
+          <t>达标</t>
+        </is>
+      </c>
+      <c r="M27" s="13" t="inlineStr">
+        <is>
+          <t>达标</t>
+        </is>
+      </c>
+      <c r="N27" s="13" t="inlineStr">
+        <is>
+          <t>达标</t>
+        </is>
+      </c>
+      <c r="O27" s="13" t="inlineStr">
         <is>
           <t>达标</t>
         </is>
@@ -1647,10 +1666,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="15" t="n">
         <v>1632459477</v>
       </c>
-      <c r="B29" s="1" t="inlineStr">
+      <c r="B29" s="13" t="inlineStr">
         <is>
           <t>Meowracl</t>
         </is>
@@ -1676,22 +1695,22 @@
           <t>提交了，但未达标</t>
         </is>
       </c>
-      <c r="J29" s="1" t="inlineStr">
-        <is>
-          <t>达标</t>
-        </is>
-      </c>
-      <c r="K29" s="1" t="inlineStr">
-        <is>
-          <t>达标</t>
-        </is>
-      </c>
-      <c r="L29" s="1" t="inlineStr">
-        <is>
-          <t>达标</t>
-        </is>
-      </c>
-      <c r="M29" s="1" t="inlineStr">
+      <c r="J29" s="13" t="inlineStr">
+        <is>
+          <t>达标</t>
+        </is>
+      </c>
+      <c r="K29" s="13" t="inlineStr">
+        <is>
+          <t>达标</t>
+        </is>
+      </c>
+      <c r="L29" s="13" t="inlineStr">
+        <is>
+          <t>达标</t>
+        </is>
+      </c>
+      <c r="M29" s="13" t="inlineStr">
         <is>
           <t>达标</t>
         </is>
@@ -1703,10 +1722,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="12" t="n">
         <v>1332272586</v>
       </c>
-      <c r="B30" s="1" t="inlineStr">
+      <c r="B30" s="12" t="inlineStr">
         <is>
           <t>朱鹮</t>
         </is>
@@ -1744,10 +1763,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="n">
+      <c r="A31" s="14" t="n">
         <v>980561536</v>
       </c>
-      <c r="B31" s="1" t="inlineStr">
+      <c r="B31" s="12" t="inlineStr">
         <is>
           <t>IA</t>
         </is>
@@ -1770,10 +1789,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="n">
+      <c r="A32" s="15" t="n">
         <v>2356055515</v>
       </c>
-      <c r="B32" s="1" t="inlineStr">
+      <c r="B32" s="13" t="inlineStr">
         <is>
           <t>Rekoow</t>
         </is>
@@ -1794,22 +1813,22 @@
           <t>达标</t>
         </is>
       </c>
-      <c r="K32" s="1" t="inlineStr">
-        <is>
-          <t>达标</t>
-        </is>
-      </c>
-      <c r="L32" s="1" t="inlineStr">
-        <is>
-          <t>达标</t>
-        </is>
-      </c>
-      <c r="M32" s="1" t="inlineStr">
-        <is>
-          <t>达标</t>
-        </is>
-      </c>
-      <c r="N32" s="1" t="inlineStr">
+      <c r="K32" s="13" t="inlineStr">
+        <is>
+          <t>达标</t>
+        </is>
+      </c>
+      <c r="L32" s="13" t="inlineStr">
+        <is>
+          <t>达标</t>
+        </is>
+      </c>
+      <c r="M32" s="13" t="inlineStr">
+        <is>
+          <t>达标</t>
+        </is>
+      </c>
+      <c r="N32" s="13" t="inlineStr">
         <is>
           <t>达标</t>
         </is>
@@ -1821,7 +1840,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="13" t="n">
+      <c r="A33" s="14" t="n">
         <v>1101172600</v>
       </c>
       <c r="B33" s="12" t="inlineStr">
@@ -1840,8 +1859,8 @@
           <t>已提交</t>
         </is>
       </c>
-      <c r="F33" s="14" t="n"/>
-      <c r="G33" s="14" t="n"/>
+      <c r="F33" s="16" t="n"/>
+      <c r="G33" s="16" t="n"/>
       <c r="H33" s="1" t="inlineStr">
         <is>
           <t>提交了，但未达标</t>
@@ -1868,8 +1887,8 @@
           <t>已提交</t>
         </is>
       </c>
-      <c r="F34" s="14" t="n"/>
-      <c r="G34" s="14" t="n"/>
+      <c r="F34" s="16" t="n"/>
+      <c r="G34" s="16" t="n"/>
       <c r="I34" s="1" t="inlineStr">
         <is>
           <t>提交了，但未达标</t>
@@ -1901,8 +1920,8 @@
       <c r="D35" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F35" s="14" t="n"/>
-      <c r="G35" s="14" t="n"/>
+      <c r="F35" s="16" t="n"/>
+      <c r="G35" s="16" t="n"/>
       <c r="H35" s="1" t="inlineStr">
         <is>
           <t>达标</t>
@@ -1915,7 +1934,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="13" t="n">
+      <c r="A36" s="14" t="n">
         <v>823794515</v>
       </c>
       <c r="B36" s="12" t="inlineStr">
@@ -1934,8 +1953,8 @@
           <t>已提交</t>
         </is>
       </c>
-      <c r="F36" s="14" t="n"/>
-      <c r="G36" s="14" t="n"/>
+      <c r="F36" s="16" t="n"/>
+      <c r="G36" s="16" t="n"/>
       <c r="H36" s="1" t="inlineStr">
         <is>
           <t>达标</t>
@@ -1967,8 +1986,8 @@
           <t>已提交</t>
         </is>
       </c>
-      <c r="F37" s="14" t="n"/>
-      <c r="G37" s="14" t="n"/>
+      <c r="F37" s="16" t="n"/>
+      <c r="G37" s="16" t="n"/>
       <c r="H37" s="1" t="inlineStr">
         <is>
           <t>达标</t>
@@ -1986,10 +2005,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="A38" s="12" t="n">
         <v>1114727139</v>
       </c>
-      <c r="B38" s="1" t="inlineStr">
+      <c r="B38" s="12" t="inlineStr">
         <is>
           <t>BitCd</t>
         </is>
@@ -2005,31 +2024,31 @@
           <t>已提交</t>
         </is>
       </c>
-      <c r="F38" s="14" t="n"/>
-      <c r="G38" s="14" t="n"/>
-      <c r="H38" s="1" t="inlineStr">
-        <is>
-          <t>达标</t>
-        </is>
-      </c>
-      <c r="I38" s="1" t="inlineStr">
-        <is>
-          <t>达标</t>
-        </is>
-      </c>
-      <c r="J38" s="1" t="inlineStr">
-        <is>
-          <t>达标</t>
-        </is>
-      </c>
-      <c r="K38" s="1" t="inlineStr">
+      <c r="F38" s="16" t="n"/>
+      <c r="G38" s="16" t="n"/>
+      <c r="H38" s="13" t="inlineStr">
+        <is>
+          <t>达标</t>
+        </is>
+      </c>
+      <c r="I38" s="13" t="inlineStr">
+        <is>
+          <t>达标</t>
+        </is>
+      </c>
+      <c r="J38" s="13" t="inlineStr">
+        <is>
+          <t>达标</t>
+        </is>
+      </c>
+      <c r="K38" s="13" t="inlineStr">
         <is>
           <t>达标</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="13" t="n">
+      <c r="A39" s="14" t="n">
         <v>2689653426</v>
       </c>
       <c r="B39" s="12" t="inlineStr">
@@ -2048,8 +2067,8 @@
           <t>已提交</t>
         </is>
       </c>
-      <c r="F39" s="14" t="n"/>
-      <c r="G39" s="14" t="n"/>
+      <c r="F39" s="16" t="n"/>
+      <c r="G39" s="16" t="n"/>
       <c r="H39" s="1" t="inlineStr">
         <is>
           <t>提交了，但未达标</t>
@@ -2067,7 +2086,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="15" t="n">
+      <c r="A40" s="17" t="n">
         <v>781173405</v>
       </c>
       <c r="B40" s="12" t="inlineStr">
@@ -2081,8 +2100,8 @@
       <c r="D40" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F40" s="14" t="n"/>
-      <c r="G40" s="14" t="n"/>
+      <c r="F40" s="16" t="n"/>
+      <c r="G40" s="16" t="n"/>
       <c r="I40" s="1" t="inlineStr">
         <is>
           <t>提交了，但未达标</t>
@@ -2090,10 +2109,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="n">
+      <c r="A41" s="15" t="n">
         <v>985244568</v>
       </c>
-      <c r="B41" s="1" t="inlineStr">
+      <c r="B41" s="13" t="inlineStr">
         <is>
           <t>自由平等公正法治</t>
         </is>
@@ -2109,25 +2128,25 @@
           <t>已提交</t>
         </is>
       </c>
-      <c r="F41" s="14" t="n"/>
-      <c r="G41" s="14" t="n"/>
-      <c r="H41" s="14" t="n"/>
-      <c r="I41" s="1" t="inlineStr">
-        <is>
-          <t>达标</t>
-        </is>
-      </c>
-      <c r="J41" s="1" t="inlineStr">
-        <is>
-          <t>达标</t>
-        </is>
-      </c>
-      <c r="K41" s="1" t="inlineStr">
-        <is>
-          <t>达标</t>
-        </is>
-      </c>
-      <c r="L41" s="1" t="inlineStr">
+      <c r="F41" s="16" t="n"/>
+      <c r="G41" s="16" t="n"/>
+      <c r="H41" s="16" t="n"/>
+      <c r="I41" s="13" t="inlineStr">
+        <is>
+          <t>达标</t>
+        </is>
+      </c>
+      <c r="J41" s="13" t="inlineStr">
+        <is>
+          <t>达标</t>
+        </is>
+      </c>
+      <c r="K41" s="13" t="inlineStr">
+        <is>
+          <t>达标</t>
+        </is>
+      </c>
+      <c r="L41" s="13" t="inlineStr">
         <is>
           <t>达标</t>
         </is>
@@ -2149,10 +2168,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="13" t="n">
         <v>1012463125</v>
       </c>
-      <c r="B42" s="1" t="inlineStr">
+      <c r="B42" s="13" t="inlineStr">
         <is>
           <t>HnnTs</t>
         </is>
@@ -2168,25 +2187,25 @@
           <t>已提交</t>
         </is>
       </c>
-      <c r="F42" s="14" t="n"/>
-      <c r="G42" s="14" t="n"/>
-      <c r="H42" s="14" t="n"/>
-      <c r="I42" s="1" t="inlineStr">
-        <is>
-          <t>达标</t>
-        </is>
-      </c>
-      <c r="J42" s="1" t="inlineStr">
-        <is>
-          <t>达标</t>
-        </is>
-      </c>
-      <c r="K42" s="1" t="inlineStr">
-        <is>
-          <t>达标</t>
-        </is>
-      </c>
-      <c r="L42" s="1" t="inlineStr">
+      <c r="F42" s="16" t="n"/>
+      <c r="G42" s="16" t="n"/>
+      <c r="H42" s="16" t="n"/>
+      <c r="I42" s="13" t="inlineStr">
+        <is>
+          <t>达标</t>
+        </is>
+      </c>
+      <c r="J42" s="13" t="inlineStr">
+        <is>
+          <t>达标</t>
+        </is>
+      </c>
+      <c r="K42" s="13" t="inlineStr">
+        <is>
+          <t>达标</t>
+        </is>
+      </c>
+      <c r="L42" s="13" t="inlineStr">
         <is>
           <t>达标</t>
         </is>
@@ -2203,10 +2222,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="15" t="n">
+      <c r="A43" s="17" t="n">
         <v>2016720164</v>
       </c>
-      <c r="B43" s="15" t="inlineStr">
+      <c r="B43" s="17" t="inlineStr">
         <is>
           <t>YEM^_^ MLSメ@yami_@</t>
         </is>
@@ -2222,9 +2241,9 @@
           <t>已提交</t>
         </is>
       </c>
-      <c r="F43" s="14" t="n"/>
-      <c r="G43" s="14" t="n"/>
-      <c r="H43" s="14" t="n"/>
+      <c r="F43" s="16" t="n"/>
+      <c r="G43" s="16" t="n"/>
+      <c r="H43" s="16" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="7" t="n">
@@ -2246,9 +2265,9 @@
           <t>已提交</t>
         </is>
       </c>
-      <c r="F44" s="14" t="n"/>
-      <c r="G44" s="14" t="n"/>
-      <c r="H44" s="14" t="n"/>
+      <c r="F44" s="16" t="n"/>
+      <c r="G44" s="16" t="n"/>
+      <c r="H44" s="16" t="n"/>
       <c r="J44" s="1" t="inlineStr">
         <is>
           <t>达标</t>
@@ -2261,10 +2280,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="15" t="n">
+      <c r="A45" s="17" t="n">
         <v>312769661</v>
       </c>
-      <c r="B45" s="15" t="inlineStr">
+      <c r="B45" s="17" t="inlineStr">
         <is>
           <t>FD丶琉璃</t>
         </is>
@@ -2275,10 +2294,10 @@
       <c r="D45" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F45" s="14" t="n"/>
-      <c r="G45" s="14" t="n"/>
-      <c r="H45" s="14" t="n"/>
-      <c r="I45" s="14" t="n"/>
+      <c r="F45" s="16" t="n"/>
+      <c r="G45" s="16" t="n"/>
+      <c r="H45" s="16" t="n"/>
+      <c r="I45" s="16" t="n"/>
       <c r="J45" s="1" t="inlineStr">
         <is>
           <t>达标</t>
@@ -2286,10 +2305,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="15" t="n">
+      <c r="A46" s="17" t="n">
         <v>2157198763</v>
       </c>
-      <c r="B46" s="16" t="inlineStr">
+      <c r="B46" s="18" t="inlineStr">
         <is>
           <t>Yem御锦</t>
         </is>
@@ -2305,10 +2324,10 @@
           <t>已提交</t>
         </is>
       </c>
-      <c r="F46" s="14" t="n"/>
-      <c r="G46" s="14" t="n"/>
-      <c r="H46" s="14" t="n"/>
-      <c r="I46" s="14" t="n"/>
+      <c r="F46" s="16" t="n"/>
+      <c r="G46" s="16" t="n"/>
+      <c r="H46" s="16" t="n"/>
+      <c r="I46" s="16" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="7" t="n">
@@ -2325,11 +2344,11 @@
       <c r="D47" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F47" s="14" t="n"/>
-      <c r="G47" s="14" t="n"/>
-      <c r="H47" s="14" t="n"/>
-      <c r="I47" s="14" t="n"/>
-      <c r="J47" s="14" t="n"/>
+      <c r="F47" s="16" t="n"/>
+      <c r="G47" s="16" t="n"/>
+      <c r="H47" s="16" t="n"/>
+      <c r="I47" s="16" t="n"/>
+      <c r="J47" s="16" t="n"/>
       <c r="L47" s="1" t="inlineStr">
         <is>
           <t>达标</t>
@@ -2356,11 +2375,11 @@
           <t>已提交</t>
         </is>
       </c>
-      <c r="F48" s="14" t="n"/>
-      <c r="G48" s="14" t="n"/>
-      <c r="H48" s="14" t="n"/>
-      <c r="I48" s="14" t="n"/>
-      <c r="J48" s="14" t="n"/>
+      <c r="F48" s="16" t="n"/>
+      <c r="G48" s="16" t="n"/>
+      <c r="H48" s="16" t="n"/>
+      <c r="I48" s="16" t="n"/>
+      <c r="J48" s="16" t="n"/>
       <c r="L48" s="1" t="inlineStr">
         <is>
           <t>达标</t>
@@ -2397,12 +2416,12 @@
           <t>已提交</t>
         </is>
       </c>
-      <c r="F49" s="14" t="n"/>
-      <c r="G49" s="14" t="n"/>
-      <c r="H49" s="14" t="n"/>
-      <c r="I49" s="14" t="n"/>
-      <c r="J49" s="14" t="n"/>
-      <c r="K49" s="14" t="n"/>
+      <c r="F49" s="16" t="n"/>
+      <c r="G49" s="16" t="n"/>
+      <c r="H49" s="16" t="n"/>
+      <c r="I49" s="16" t="n"/>
+      <c r="J49" s="16" t="n"/>
+      <c r="K49" s="16" t="n"/>
       <c r="L49" s="1" t="inlineStr">
         <is>
           <t>提交，但未达标</t>
@@ -2434,12 +2453,12 @@
       <c r="D50" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F50" s="14" t="n"/>
-      <c r="G50" s="14" t="n"/>
-      <c r="H50" s="14" t="n"/>
-      <c r="I50" s="14" t="n"/>
-      <c r="J50" s="14" t="n"/>
-      <c r="K50" s="14" t="n"/>
+      <c r="F50" s="16" t="n"/>
+      <c r="G50" s="16" t="n"/>
+      <c r="H50" s="16" t="n"/>
+      <c r="I50" s="16" t="n"/>
+      <c r="J50" s="16" t="n"/>
+      <c r="K50" s="16" t="n"/>
       <c r="M50" s="1" t="inlineStr">
         <is>
           <t>达标</t>
@@ -2466,14 +2485,14 @@
           <t>已提交</t>
         </is>
       </c>
-      <c r="F51" s="14" t="n"/>
-      <c r="G51" s="14" t="n"/>
-      <c r="H51" s="14" t="n"/>
-      <c r="I51" s="14" t="n"/>
-      <c r="J51" s="14" t="n"/>
-      <c r="K51" s="14" t="n"/>
-      <c r="L51" s="14" t="n"/>
-      <c r="M51" s="14" t="n"/>
+      <c r="F51" s="16" t="n"/>
+      <c r="G51" s="16" t="n"/>
+      <c r="H51" s="16" t="n"/>
+      <c r="I51" s="16" t="n"/>
+      <c r="J51" s="16" t="n"/>
+      <c r="K51" s="16" t="n"/>
+      <c r="L51" s="16" t="n"/>
+      <c r="M51" s="16" t="n"/>
       <c r="N51" s="1" t="inlineStr">
         <is>
           <t>达标</t>
@@ -2505,14 +2524,14 @@
           <t>已提交</t>
         </is>
       </c>
-      <c r="F52" s="14" t="n"/>
-      <c r="G52" s="14" t="n"/>
-      <c r="H52" s="14" t="n"/>
-      <c r="I52" s="14" t="n"/>
-      <c r="J52" s="14" t="n"/>
-      <c r="K52" s="14" t="n"/>
-      <c r="L52" s="14" t="n"/>
-      <c r="M52" s="14" t="n"/>
+      <c r="F52" s="16" t="n"/>
+      <c r="G52" s="16" t="n"/>
+      <c r="H52" s="16" t="n"/>
+      <c r="I52" s="16" t="n"/>
+      <c r="J52" s="16" t="n"/>
+      <c r="K52" s="16" t="n"/>
+      <c r="L52" s="16" t="n"/>
+      <c r="M52" s="16" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2534,14 +2553,14 @@
           <t>已提交</t>
         </is>
       </c>
-      <c r="F53" s="14" t="n"/>
-      <c r="G53" s="14" t="n"/>
-      <c r="H53" s="14" t="n"/>
-      <c r="I53" s="14" t="n"/>
-      <c r="J53" s="14" t="n"/>
-      <c r="K53" s="14" t="n"/>
-      <c r="L53" s="14" t="n"/>
-      <c r="M53" s="14" t="n"/>
+      <c r="F53" s="16" t="n"/>
+      <c r="G53" s="16" t="n"/>
+      <c r="H53" s="16" t="n"/>
+      <c r="I53" s="16" t="n"/>
+      <c r="J53" s="16" t="n"/>
+      <c r="K53" s="16" t="n"/>
+      <c r="L53" s="16" t="n"/>
+      <c r="M53" s="16" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="6" t="n">
@@ -2563,21 +2582,21 @@
           <t>已提交</t>
         </is>
       </c>
-      <c r="F54" s="14" t="n"/>
-      <c r="G54" s="14" t="n"/>
-      <c r="H54" s="14" t="n"/>
-      <c r="I54" s="14" t="n"/>
-      <c r="J54" s="14" t="n"/>
-      <c r="K54" s="14" t="n"/>
-      <c r="L54" s="14" t="n"/>
-      <c r="M54" s="14" t="n"/>
-      <c r="N54" s="14" t="n"/>
+      <c r="F54" s="16" t="n"/>
+      <c r="G54" s="16" t="n"/>
+      <c r="H54" s="16" t="n"/>
+      <c r="I54" s="16" t="n"/>
+      <c r="J54" s="16" t="n"/>
+      <c r="K54" s="16" t="n"/>
+      <c r="L54" s="16" t="n"/>
+      <c r="M54" s="16" t="n"/>
+      <c r="N54" s="16" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="17" t="n">
+      <c r="A55" s="19" t="n">
         <v>496056959</v>
       </c>
-      <c r="B55" s="17" t="inlineStr">
+      <c r="B55" s="19" t="inlineStr">
         <is>
           <t>M.R.</t>
         </is>
@@ -2588,21 +2607,21 @@
       <c r="D55" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F55" s="14" t="n"/>
-      <c r="G55" s="14" t="n"/>
-      <c r="H55" s="14" t="n"/>
-      <c r="I55" s="14" t="n"/>
-      <c r="J55" s="14" t="n"/>
-      <c r="K55" s="14" t="n"/>
-      <c r="L55" s="14" t="n"/>
-      <c r="M55" s="14" t="n"/>
-      <c r="N55" s="14" t="n"/>
+      <c r="F55" s="16" t="n"/>
+      <c r="G55" s="16" t="n"/>
+      <c r="H55" s="16" t="n"/>
+      <c r="I55" s="16" t="n"/>
+      <c r="J55" s="16" t="n"/>
+      <c r="K55" s="16" t="n"/>
+      <c r="L55" s="16" t="n"/>
+      <c r="M55" s="16" t="n"/>
+      <c r="N55" s="16" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="17" t="n">
+      <c r="A56" s="19" t="n">
         <v>180065584</v>
       </c>
-      <c r="B56" s="17" t="inlineStr">
+      <c r="B56" s="19" t="inlineStr">
         <is>
           <t>Fettel</t>
         </is>
@@ -2613,15 +2632,15 @@
       <c r="D56" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F56" s="14" t="n"/>
-      <c r="G56" s="14" t="n"/>
-      <c r="H56" s="14" t="n"/>
-      <c r="I56" s="14" t="n"/>
-      <c r="J56" s="14" t="n"/>
-      <c r="K56" s="14" t="n"/>
-      <c r="L56" s="14" t="n"/>
-      <c r="M56" s="14" t="n"/>
-      <c r="N56" s="14" t="n"/>
+      <c r="F56" s="16" t="n"/>
+      <c r="G56" s="16" t="n"/>
+      <c r="H56" s="16" t="n"/>
+      <c r="I56" s="16" t="n"/>
+      <c r="J56" s="16" t="n"/>
+      <c r="K56" s="16" t="n"/>
+      <c r="L56" s="16" t="n"/>
+      <c r="M56" s="16" t="n"/>
+      <c r="N56" s="16" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="7" t="n">
@@ -2638,15 +2657,15 @@
       <c r="D57" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F57" s="14" t="n"/>
-      <c r="G57" s="14" t="n"/>
-      <c r="H57" s="14" t="n"/>
-      <c r="I57" s="14" t="n"/>
-      <c r="J57" s="14" t="n"/>
-      <c r="K57" s="14" t="n"/>
-      <c r="L57" s="14" t="n"/>
-      <c r="M57" s="14" t="n"/>
-      <c r="N57" s="14" t="n"/>
+      <c r="F57" s="16" t="n"/>
+      <c r="G57" s="16" t="n"/>
+      <c r="H57" s="16" t="n"/>
+      <c r="I57" s="16" t="n"/>
+      <c r="J57" s="16" t="n"/>
+      <c r="K57" s="16" t="n"/>
+      <c r="L57" s="16" t="n"/>
+      <c r="M57" s="16" t="n"/>
+      <c r="N57" s="16" t="n"/>
       <c r="O57" s="1" t="inlineStr">
         <is>
           <t>达标</t>
@@ -2654,10 +2673,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="17" t="n">
+      <c r="A58" s="19" t="n">
         <v>1978907169</v>
       </c>
-      <c r="B58" s="17" t="inlineStr">
+      <c r="B58" s="19" t="inlineStr">
         <is>
           <t>MSC丶暖</t>
         </is>
@@ -2668,16 +2687,16 @@
       <c r="D58" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F58" s="14" t="n"/>
-      <c r="G58" s="14" t="n"/>
-      <c r="H58" s="14" t="n"/>
-      <c r="I58" s="14" t="n"/>
-      <c r="J58" s="14" t="n"/>
-      <c r="K58" s="14" t="n"/>
-      <c r="L58" s="14" t="n"/>
-      <c r="M58" s="14" t="n"/>
-      <c r="N58" s="14" t="n"/>
-      <c r="O58" s="14" t="n"/>
+      <c r="F58" s="16" t="n"/>
+      <c r="G58" s="16" t="n"/>
+      <c r="H58" s="16" t="n"/>
+      <c r="I58" s="16" t="n"/>
+      <c r="J58" s="16" t="n"/>
+      <c r="K58" s="16" t="n"/>
+      <c r="L58" s="16" t="n"/>
+      <c r="M58" s="16" t="n"/>
+      <c r="N58" s="16" t="n"/>
+      <c r="O58" s="16" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
